--- a/Project/PJ-1/image_classification_fixed.xlsx
+++ b/Project/PJ-1/image_classification_fixed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. GSAPP\1. Courses\Fall 2024\Coding for Spatial Practice\Coding-with-Spatial-Pratice\Project\PJ-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4547EBCE-CF1A-4E05-95E7-9B9A5FD8E33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -61,12 +67,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,8 +80,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,24 +127,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,415 +441,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -828,6 +863,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/PJ-1/image_classification_fixed.xlsx
+++ b/Project/PJ-1/image_classification_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. GSAPP\1. Courses\Fall 2024\Coding for Spatial Practice\Coding-with-Spatial-Pratice\Project\PJ-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4547EBCE-CF1A-4E05-95E7-9B9A5FD8E33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C038C9F-3556-4496-8082-31B9A7791E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>Image Number</t>
   </si>
@@ -28,40 +28,36 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Energetic</t>
-  </si>
-  <si>
     <t>Lonely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceanic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulsating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Verdant</t>
-  </si>
-  <si>
-    <t>Oceanic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Desolate</t>
-  </si>
-  <si>
-    <t>Radiant</t>
-  </si>
-  <si>
-    <t>Mysterious</t>
-  </si>
-  <si>
-    <t>Arid</t>
-  </si>
-  <si>
-    <t>Futuristic</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Luminous</t>
-  </si>
-  <si>
-    <t>Pulsating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -467,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -475,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -491,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -499,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +607,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +639,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +647,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +671,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +695,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +711,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +719,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +727,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +735,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +743,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +751,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +775,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +783,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +791,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +799,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +815,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +823,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +831,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +839,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +847,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,11 +855,12 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>